--- a/Documents/Timeline Project 3 Kelompok  B1 - revisi.xlsx
+++ b/Documents/Timeline Project 3 Kelompok  B1 - revisi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Campus Life\Materi Kuliah\Semester3\Project 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Campus Life\Materi Kuliah\Semester3\Project 3\Travel Time\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,13 +458,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +748,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="CB48" sqref="CB48"/>
+      <selection pane="topRight" activeCell="BN27" sqref="BN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,10 +792,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -809,87 +809,87 @@
       <c r="AS1"/>
       <c r="AZ1"/>
       <c r="BG1"/>
-      <c r="BN1" s="22" t="s">
+      <c r="BN1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:66" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-      <c r="AT2" s="20"/>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="22"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="21"/>
+      <c r="BD2" s="21"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="21"/>
+      <c r="BJ2" s="21"/>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="21"/>
+      <c r="BM2" s="21"/>
+      <c r="BN2" s="20"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="12">
         <v>14</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="BM3">
         <v>15</v>
       </c>
-      <c r="BN3" s="22"/>
+      <c r="BN3" s="20"/>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -2821,7 +2821,7 @@
       <c r="BL27" s="8"/>
       <c r="BM27" s="8"/>
       <c r="BN27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.25">

--- a/Documents/Timeline Project 3 Kelompok  B1 - revisi.xlsx
+++ b/Documents/Timeline Project 3 Kelompok  B1 - revisi.xlsx
@@ -748,10 +748,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="BN27" sqref="BN27"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3699,9 +3699,6 @@
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="19"/>
       <c r="J40" s="13"/>
       <c r="K40" s="10"/>
       <c r="L40" s="8"/>
@@ -3770,9 +3767,9 @@
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="18"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="13"/>
       <c r="K41" s="10"/>
       <c r="L41" s="8"/>
@@ -3845,8 +3842,8 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="16"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="13"/>
       <c r="K42" s="10"/>
       <c r="L42" s="8"/>
